--- a/results/data.xlsx
+++ b/results/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>Reasoning</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Lead Conversion Score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Real-Time Lead Score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Scoring Reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,6 +539,185 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>While Samsung has a strong online presence with a website, LinkedIn profile, and Yahoo Finance listing, the lack of a readily available general contact email address reduces its potential as a readily accessible business lead.  The publicly available information is suitable for initial research and understanding the company, but direct engagement requires alternative methods (e.g., contact forms on their website, LinkedIn messaging, or identifying specific department contacts).  Its size and global reach make it a potentially valuable lead, but requires more effort to initiate contact than a company with readily available contact information.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Missing or invalid Email; Valid Website provided; LinkedIn profile provided</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PT Bank Central Asia Tbk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.bca.co.id/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Contact information is not readily available on their public website.  Contact information may be found within their investor relations section or through other official channels.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/bank-central-asia/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Menara BCA, Jl. MH. Thamrin No. 1, Jakarta Pusat 10310, Indonesia</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/BBCA.JK</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PT Bank Central Asia Tbk (BCA) is one of the largest private banks in Indonesia.  It offers a wide range of financial services to individuals and corporations.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>The company, PT Bank Central Asia Tbk (BCA), is a large and established bank with a strong online presence, including a website, LinkedIn page, and Yahoo Finance profile.  This indicates a degree of organizational maturity and digital engagement. However, the lack of readily available email contact information lowers the score. While investor relations or other channels might provide contact, the immediate lack of a public email address makes direct outreach more challenging.  Further research into investor relations contact details is recommended before pursuing this lead.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Missing or invalid Email; Valid Website provided; LinkedIn profile provided</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tesla, Inc.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tesla.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>There is no publicly available general contact email address for Tesla.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/tesla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13101 Tesla Road, Austin, Texas 78725, USA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/TSLA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tesla, Inc. designs and manufactures electric vehicles, battery energy storage devices from stationary battery packs for homes and businesses to large-scale utility projects, and solar panels and solar roof tiles, and related products and services.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Missing or invalid Email; Valid Website provided; LinkedIn profile provided</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Acer Incorporated</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.acer.com/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>This information is not publicly available on their website.  Contact information varies by region and is typically found through their support pages.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/acer/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11F, 8, No.1, XinTai 5th Rd., Xizhi Dist., New Taipei City 221, Taiwan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/quote/2353.TW</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Acer is a Taiwanese multinational hardware and electronics corporation specializing in advanced electronics and technology.  They design, manufacture, and market a wide range of products, including personal computers, servers, smartphones, displays, and other electronic devices.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Acer is a large, established company with a strong online presence, including a website and LinkedIn page.  However, the lack of readily available public email contact information reduces the ease of initial outreach. While their Yahoo Finance link provides financial data, this is less relevant for direct lead qualification in a sales context.  The company's size and established market position mean that pursuing them as a lead would likely involve a more complex sales process.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Missing or invalid Email; Valid Website provided; LinkedIn profile provided</t>
         </is>
       </c>
     </row>
